--- a/02. Planificacion/Backlog Detallado del Producto.xlsx
+++ b/02. Planificacion/Backlog Detallado del Producto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbravo-consultorge\Google Drive\Proyectos\Udemy\Cursos Creados\SCRUM práctico en proyectos de desarrollo de software\Resources\Plantillas de Gestión de Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubiw\Downloads\gestion-proyectos-master\gestion-proyectos-master\02. Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EDB417-BEE2-4D00-AE72-D3BBF607118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="8" r:id="rId1"/>
@@ -30,13 +31,13 @@
     <definedName name="PBCurrentBottom">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PBTrend">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$N$190</definedName>
+    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$N$179</definedName>
     <definedName name="RealizedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="Sprint">'Backlog del Producto'!$L$7:$L$190</definedName>
+    <definedName name="Sprint">'Backlog del Producto'!$L$7:$L$179</definedName>
     <definedName name="SprintCount">#REF!</definedName>
     <definedName name="SprintsInTrend">#REF!</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Backlog del Producto'!$M$7:$M$190</definedName>
+    <definedName name="Status">'Backlog del Producto'!$M$7:$M$179</definedName>
     <definedName name="StoryName">'Backlog del Producto'!#REF!</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
@@ -46,19 +47,32 @@
     <definedName name="TrendOffset">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petri Heiramo</author>
     <author>Hector Bravo Consultor GE</author>
     <author>Hector Bravo</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1" shapeId="0">
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="2" shapeId="0">
+    <comment ref="K6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>Sprint</t>
   </si>
@@ -267,12 +281,342 @@
   </si>
   <si>
     <t>OTROS DATOS DE LA HISTORIA DE USUARIO O TAREA</t>
+  </si>
+  <si>
+    <t>HU01</t>
+  </si>
+  <si>
+    <t>HU02</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>HU04</t>
+  </si>
+  <si>
+    <t>HU05</t>
+  </si>
+  <si>
+    <t>HU06</t>
+  </si>
+  <si>
+    <t>HU07</t>
+  </si>
+  <si>
+    <t>HU08</t>
+  </si>
+  <si>
+    <t>HU09</t>
+  </si>
+  <si>
+    <t>HU10</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Administrador del sistema</t>
+  </si>
+  <si>
+    <t>Que AIuda me dé la bienvenida y me informe que es una IA de apoyo emocional</t>
+  </si>
+  <si>
+    <t>Comprender los límites del chatbot y usarlo responsablemente</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>Redactar mensaje inicial con tono empático y aclaración de límites</t>
+  </si>
+  <si>
+    <t>El mensaje menciona que no reemplaza atención profesional y ofrece líneas de ayuda</t>
+  </si>
+  <si>
+    <t>Programar flujo de bienvenida y presentación</t>
+  </si>
+  <si>
+    <t>El flujo se muestra al iniciar por primera vez</t>
+  </si>
+  <si>
+    <t>Elegir entre ejercicios de respiración o grounding</t>
+  </si>
+  <si>
+    <t>Aplicar la técnica adecuada según mi estado</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>Diseñar menú con opciones de respiración y grounding</t>
+  </si>
+  <si>
+    <t>El usuario ve ambas opciones con descripción breve</t>
+  </si>
+  <si>
+    <t>Programar lógica de selección de técnica</t>
+  </si>
+  <si>
+    <t>Selecciona correctamente según la opción elegida</t>
+  </si>
+  <si>
+    <t>Recibir acompañamiento en técnica de respiración guiada</t>
+  </si>
+  <si>
+    <t>Calmarme durante momentos de ansiedad</t>
+  </si>
+  <si>
+    <t>Crear flujo de respiración 4-7-8 o diafragmática</t>
+  </si>
+  <si>
+    <t>Guía paso a paso con temporizador</t>
+  </si>
+  <si>
+    <t>Implementar opción para pausar o repetir ejercicio</t>
+  </si>
+  <si>
+    <t>Funcionalidad activa sin errores</t>
+  </si>
+  <si>
+    <t>Practicar técnica grounding 5-4-3-2-1</t>
+  </si>
+  <si>
+    <t>Recuperar control y volver al presente</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>Programar guía de grounding con interacción por pasos</t>
+  </si>
+  <si>
+    <t>AIuda espera respuesta del usuario en cada paso</t>
+  </si>
+  <si>
+    <t>Crear mensajes de cierre y refuerzo positivo</t>
+  </si>
+  <si>
+    <t>Mensaje final valida esfuerzo del usuario</t>
+  </si>
+  <si>
+    <t>Que AIuda detecte palabras de riesgo y active protocolo de emergencia</t>
+  </si>
+  <si>
+    <t>Obtener ayuda profesional inmediata</t>
+  </si>
+  <si>
+    <t>Implementar lista de palabras clave sensibles</t>
+  </si>
+  <si>
+    <t>Detecta términos de riesgo sin falsos positivos</t>
+  </si>
+  <si>
+    <t>Configurar respuesta automática con líneas de emergencia</t>
+  </si>
+  <si>
+    <t>Se muestra mensaje empático + contactos de ayuda</t>
+  </si>
+  <si>
+    <t>Escribir pensamientos guiado por preguntas reflexivas</t>
+  </si>
+  <si>
+    <t>Sentirme comprendido y procesar emociones</t>
+  </si>
+  <si>
+    <t>Diseñar flujo con preguntas de journaling terapéutico</t>
+  </si>
+  <si>
+    <t>AIuda formula preguntas abiertas y empáticas</t>
+  </si>
+  <si>
+    <t>Programar guardado temporal y opción de cierre seguro</t>
+  </si>
+  <si>
+    <t>El texto no se almacena tras cerrar la sesión</t>
+  </si>
+  <si>
+    <t>Grabar o integrar audios breves de mindfulness</t>
+  </si>
+  <si>
+    <t>Audios categorizados por duración/tema</t>
+  </si>
+  <si>
+    <t>Crear interfaz para elegir sesión</t>
+  </si>
+  <si>
+    <t>Escuchar sesiones cortas de mindfulness narradas</t>
+  </si>
+  <si>
+    <t>Relajarme o concentrarme según el momento</t>
+  </si>
+  <si>
+    <t>Lista clara y funcional de audios</t>
+  </si>
+  <si>
+    <t>Que las respuestas provengan de base validada (RAG)</t>
+  </si>
+  <si>
+    <t>Asegurar calidad y confianza en contenido</t>
+  </si>
+  <si>
+    <t>Integrar repositorio curado con sistema RAG</t>
+  </si>
+  <si>
+    <t>Todas las respuestas consultan base validada</t>
+  </si>
+  <si>
+    <t>Validar conexión RAG con motor del chatbot</t>
+  </si>
+  <si>
+    <t>Sistema solo responde si encuentra fuente válida</t>
+  </si>
+  <si>
+    <t>Registrar métricas anónimas</t>
+  </si>
+  <si>
+    <t>Analizar desempeño sin almacenar datos personales</t>
+  </si>
+  <si>
+    <t>Programar módulo de registro anónimo</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>Registra tipo de interacción y duración</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>Exportar métricas en JSON y limpiar texto sensible</t>
+  </si>
+  <si>
+    <t>Archivo JSON sin PII</t>
+  </si>
+  <si>
+    <t>T017</t>
+  </si>
+  <si>
+    <t>Que las conversaciones sean privadas</t>
+  </si>
+  <si>
+    <t>Integrar modelo con RAG y detección de crisis</t>
+  </si>
+  <si>
+    <t>Implementar eliminación automática de datos</t>
+  </si>
+  <si>
+    <t>Sentirme seguro al usar el chatbot</t>
+  </si>
+  <si>
+    <t>Garantizar respuestas seguras</t>
+  </si>
+  <si>
+    <t>Cumplir políticas de privacidad</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Conectar modelo base, RAG y detector de crisis</t>
+  </si>
+  <si>
+    <t>Flujo correcto entre módulos</t>
+  </si>
+  <si>
+    <t>Diseñar sistema sin almacenamiento persistente</t>
+  </si>
+  <si>
+    <t>No se guarda texto tras sesión</t>
+  </si>
+  <si>
+    <t>Programar borrado automático al cerrar sesión</t>
+  </si>
+  <si>
+    <t>No quedan logs o archivos temporales</t>
+  </si>
+  <si>
+    <t>Chatbot Aiuda</t>
+  </si>
+  <si>
+    <t>Capibara Rial</t>
+  </si>
+  <si>
+    <t>Inicio del proyecto, definición de requisitos, bienvenida y flujo conversacional básico.</t>
+  </si>
+  <si>
+    <t>Desarrollo del núcleo conversacional (MVP) con ejercicios de respiración y grounding.</t>
+  </si>
+  <si>
+    <t>Implementar sistema de detección de crisis, protocolos éticos y seguridad emocional.</t>
+  </si>
+  <si>
+    <t>Integración de la base RAG con contenido psicológico validado y funciones avanzadas.</t>
+  </si>
+  <si>
+    <t>Pruebas piloto, validación con usuarios y entrega final del Release 1.0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -471,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,18 +853,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,14 +873,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -545,25 +883,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,6 +922,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -599,38 +946,41 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="37">
     <dxf>
       <font>
         <b/>
@@ -645,6 +995,28 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -682,6 +1054,72 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -795,6 +1233,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
@@ -805,13 +1250,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1199,14 +1637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q80"/>
+  <dimension ref="B1:Q69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H26" zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1229,151 +1667,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="54" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="34"/>
+    <row r="7" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1381,268 +1831,506 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+    <row r="8" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="52">
+        <v>10</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52">
+        <v>1</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="52">
+        <v>8</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="52">
+        <v>1</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1</v>
+      </c>
+      <c r="J11" s="52">
+        <v>12</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="52">
+        <v>1</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52">
+        <v>8</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="52">
+        <v>1</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1</v>
+      </c>
+      <c r="J14" s="52">
+        <v>15</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="52">
+        <v>2</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="52">
+        <v>2</v>
+      </c>
+      <c r="J15" s="52">
+        <v>6</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="52">
+        <v>2</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1</v>
+      </c>
+      <c r="J17" s="52">
+        <v>12</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="52">
+        <v>2</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="52">
+        <v>2</v>
+      </c>
+      <c r="J18" s="52">
+        <v>6</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="52">
+        <v>2</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52">
+        <v>15</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="52">
+        <v>3</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1</v>
+      </c>
+      <c r="J21" s="52">
+        <v>10</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="52">
+        <v>3</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>10</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="8">
+        <v>3</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>8</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="8">
+        <v>3</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+    <row r="25" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1652,42 +2340,80 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>10</v>
+      </c>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="L26" s="8">
+        <v>2</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>8</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+    <row r="28" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1697,42 +2423,82 @@
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="8">
+        <v>4</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>10</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="8">
+        <v>4</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+    <row r="31" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1742,42 +2508,82 @@
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>8</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="8">
+        <v>4</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>6</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+    <row r="34" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="9"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1787,57 +2593,107 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
+        <v>10</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="8">
+        <v>4</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+    <row r="36" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="9"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <v>4</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
+        <v>20</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" s="8">
+        <v>3</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+    <row r="38" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="9"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1847,27 +2703,43 @@
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>10</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="8">
+        <v>4</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="9"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1877,12 +2749,12 @@
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1891,176 +2763,26 @@
       <c r="M41" s="8"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="9"/>
-    </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="N69" s="7"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="58" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="7"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2073,77 +2795,131 @@
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N69:N70">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:F11 B7 D7:F7 B10 D10:F10 I7:N7 B8:F9 H23:H29 I23:N40 B12:B19 B25:C31 B41:N114 D12:F16 B17:F29 B30:G31 B32:H34 B35:G36 B40:H40 H37:H38 B37:F39">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
+      <formula>$M7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="42" stopIfTrue="1">
+      <formula>$M7="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11 B7 D7:F7 B10 D10:F10 I7:N7 B8:F9 H23:H29 I23:N40 B12:B19 B25:C31 B41:N114 D12:F16 B17:F29 B30:G31 B32:H34 B35:G36 B40:H40 H37:H38 B37:F39">
+    <cfRule type="expression" dxfId="34" priority="40" stopIfTrue="1">
+      <formula>$M7="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="39" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="N58:N59">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
-    <cfRule type="expression" dxfId="18" priority="73" stopIfTrue="1">
-      <formula>$M70="Done"</formula>
+  <conditionalFormatting sqref="N69">
+    <cfRule type="expression" dxfId="27" priority="82" stopIfTrue="1">
+      <formula>$M59="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="74" stopIfTrue="1">
-      <formula>$M70="Ongoing"</formula>
+    <cfRule type="expression" dxfId="26" priority="83" stopIfTrue="1">
+      <formula>$M59="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
-      <formula>$M70="Removed"</formula>
+    <cfRule type="expression" dxfId="25" priority="84" stopIfTrue="1">
+      <formula>$M59="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F7 I7:N125 B8:H125">
-    <cfRule type="expression" dxfId="15" priority="31" stopIfTrue="1">
-      <formula>$M7="Terminado"</formula>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="expression" dxfId="24" priority="91" stopIfTrue="1">
+      <formula>$M12="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
-      <formula>$M7="En Progreso"</formula>
+    <cfRule type="expression" dxfId="23" priority="92" stopIfTrue="1">
+      <formula>$M12="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="33" stopIfTrue="1">
-      <formula>$M7="Eliminado"</formula>
+    <cfRule type="expression" dxfId="22" priority="93" stopIfTrue="1">
+      <formula>$M12="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="12" priority="79" stopIfTrue="1">
-      <formula>$M11="Done"</formula>
+    <cfRule type="expression" dxfId="21" priority="88" stopIfTrue="1">
+      <formula>$M14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="80" stopIfTrue="1">
-      <formula>$M11="In Progress"</formula>
+    <cfRule type="expression" dxfId="20" priority="89" stopIfTrue="1">
+      <formula>$M14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="81" stopIfTrue="1">
-      <formula>$M11="Removed"</formula>
+    <cfRule type="expression" dxfId="19" priority="90" stopIfTrue="1">
+      <formula>$M14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="9" priority="82" stopIfTrue="1">
-      <formula>$M9="Done"</formula>
+  <conditionalFormatting sqref="G8:G29">
+    <cfRule type="expression" dxfId="18" priority="8" stopIfTrue="1">
+      <formula>$M8="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="83" stopIfTrue="1">
-      <formula>$M9="In Progress"</formula>
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+      <formula>$M8="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="84" stopIfTrue="1">
-      <formula>$M9="Removed"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G29">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+      <formula>$M8="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:N22">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+      <formula>$M8="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+      <formula>$M8="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:N22">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+      <formula>$M8="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 H36">
+    <cfRule type="expression" dxfId="12" priority="96" stopIfTrue="1">
+      <formula>$M30="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="97" stopIfTrue="1">
+      <formula>$M30="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31 H36">
+    <cfRule type="expression" dxfId="10" priority="99" stopIfTrue="1">
+      <formula>$M30="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="4" priority="102" stopIfTrue="1">
+      <formula>$M39="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="103" stopIfTrue="1">
+      <formula>$M39="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="2" priority="105" stopIfTrue="1">
+      <formula>$M39="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="M81:M190 M6:M79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="M70:M179 M6:M68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2155,12 +2931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2179,154 +2955,179 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="36">
-        <v>43332</v>
+      <c r="C3" s="32">
+        <v>45936</v>
       </c>
       <c r="D3" s="20">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E3" s="21">
-        <v>43362</v>
+        <v>45939</v>
       </c>
       <c r="F3" s="17">
-        <f>IF(B3="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B3,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <f>IF(B3="","",SUMIF('Backlog del Producto'!L$7:L$119,Sprints!B3,'Backlog del Producto'!J$7:J$119))</f>
+        <v>38</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="54">
+        <f>E3</f>
+        <v>45939</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="19">
         <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
-        <v>43362</v>
+        <v>45940</v>
       </c>
       <c r="D4" s="20">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="21">
         <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4-1,"")</f>
-        <v>43376</v>
+        <v>45946</v>
       </c>
       <c r="F4" s="17">
-        <f>IF(B4="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B4,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <f>IF(B4="","",SUMIF('Backlog del Producto'!L$7:L$119,Sprints!B4,'Backlog del Producto'!J$7:J$119))</f>
+        <v>57</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="54">
+        <f t="shared" ref="H4:H7" si="0">E4</f>
+        <v>45946</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="19">
         <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",D5&lt;&gt;""),C4+D4,"")</f>
-        <v>43377</v>
+        <v>45947</v>
       </c>
       <c r="D5" s="20">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E5" s="21">
         <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5+D5-1,"")</f>
-        <v>43406</v>
+        <v>45953</v>
       </c>
       <c r="F5" s="17">
-        <f>IF(B5="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B5,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <f>IF(B5="","",SUMIF('Backlog del Producto'!L$7:L$119,Sprints!B5,'Backlog del Producto'!J$7:J$119))</f>
+        <v>63</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="54">
+        <f t="shared" si="0"/>
+        <v>45953</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="19">
         <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;"",D6&lt;&gt;""),C5+D5,"")</f>
-        <v>43407</v>
+        <v>45954</v>
       </c>
       <c r="D6" s="20">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E6" s="21">
         <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;""),C6+D6-1,"")</f>
-        <v>43436</v>
+        <v>45960</v>
       </c>
       <c r="F6" s="17">
-        <f>IF(B6="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B6,'Backlog del Producto'!J$7:J$130))</f>
-        <v>0</v>
+        <f>IF(B6="","",SUMIF('Backlog del Producto'!L$7:L$119,Sprints!B6,'Backlog del Producto'!J$7:J$119))</f>
+        <v>64</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="54">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="17">
         <v>5</v>
       </c>
       <c r="C7" s="19">
         <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;"",D7&lt;&gt;""),C6+D6,"")</f>
-        <v>43437</v>
+        <v>45961</v>
       </c>
       <c r="D7" s="20">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E7" s="21">
         <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7+D7-1,"")</f>
-        <v>43466</v>
+        <v>45967</v>
       </c>
       <c r="F7" s="17">
-        <f>IF(B7="","",SUMIF('Backlog del Producto'!L$7:L$130,Sprints!B7,'Backlog del Producto'!J$7:J$130))</f>
+        <f>IF(B7="","",SUMIF('Backlog del Producto'!L$7:L$119,Sprints!B7,'Backlog del Producto'!J$7:J$119))</f>
         <v>0</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="54">
+        <f t="shared" si="0"/>
+        <v>45967</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -2340,24 +3141,24 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="str">
-        <f t="shared" ref="B9:B17" si="0">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),B8+1,"")</f>
+        <f t="shared" ref="B9:B17" si="1">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),B8+1,"")</f>
         <v/>
       </c>
       <c r="C9" s="19" t="str">
-        <f t="shared" ref="C9:C17" si="1">IF(AND(C8&lt;&gt;"",D8&lt;&gt;"",D9&lt;&gt;""),C8+D8,"")</f>
+        <f t="shared" ref="C9:C17" si="2">IF(AND(C8&lt;&gt;"",D8&lt;&gt;"",D9&lt;&gt;""),C8+D8,"")</f>
         <v/>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21" t="str">
-        <f t="shared" ref="E9:E17" si="2">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9+D9-1,"")</f>
+        <f t="shared" ref="E9:E17" si="3">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9+D9-1,"")</f>
         <v/>
       </c>
       <c r="F9" s="17" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B9,'Backlog del Producto'!J$8:J$130))</f>
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B9,'Backlog del Producto'!J$10:J$119))</f>
         <v/>
       </c>
       <c r="G9" s="18" t="str">
-        <f t="shared" ref="G9:G17" si="3">IF(AND(OR(G8="Planned",G8="Ongoing"),D9&lt;&gt;""),"Planned","Unplanned")</f>
+        <f t="shared" ref="G9:G17" si="4">IF(AND(OR(G8="Planned",G8="Ongoing"),D9&lt;&gt;""),"Planned","Unplanned")</f>
         <v>Unplanned</v>
       </c>
       <c r="H9" s="20"/>
@@ -2365,199 +3166,199 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="C10" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B10,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G10" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F10" s="17" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B10,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G10" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F11" s="17" t="str">
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B11,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G11" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="19" t="str">
+      <c r="H11" s="20"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="str">
+      <c r="C12" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F11" s="17" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B11,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G11" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F12" s="17" t="str">
+        <f>IF(B12="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B12,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G12" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="19" t="str">
+      <c r="H12" s="20"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="str">
+      <c r="C13" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F12" s="17" t="str">
-        <f>IF(B12="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B12,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G12" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F13" s="17" t="str">
+        <f>IF(B13="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B13,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G13" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="19" t="str">
+      <c r="H13" s="20"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="str">
+      <c r="C14" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="17" t="str">
-        <f>IF(B13="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B13,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F14" s="17" t="str">
+        <f>IF(B14="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B14,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G14" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="19" t="str">
+      <c r="H14" s="20"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="str">
+      <c r="C15" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
-        <f>IF(B14="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B14,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G14" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F15" s="17" t="str">
+        <f>IF(B15="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B15,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G15" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="19" t="str">
+      <c r="H15" s="20"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="str">
+      <c r="C16" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="17" t="str">
-        <f>IF(B15="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B15,'Backlog del Producto'!J$8:J$130))</f>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G15" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="F16" s="17" t="str">
+        <f>IF(B16="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B16,'Backlog del Producto'!J$10:J$119))</f>
+        <v/>
+      </c>
+      <c r="G16" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="19" t="str">
+      <c r="H16" s="20"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="str">
+      <c r="C17" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="17" t="str">
-        <f>IF(B16="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B16,'Backlog del Producto'!J$8:J$130))</f>
-        <v/>
-      </c>
-      <c r="G16" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Unplanned</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F17" s="17" t="str">
-        <f>IF(B17="","",SUMIF('Backlog del Producto'!L$8:L$130,Sprints!B17,'Backlog del Producto'!J$8:J$130))</f>
+        <f>IF(B17="","",SUMIF('Backlog del Producto'!L$10:L$119,Sprints!B17,'Backlog del Producto'!J$10:J$119))</f>
         <v/>
       </c>
       <c r="G17" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
       <c r="H17" s="20"/>
@@ -2571,35 +3372,16 @@
         <v>14</v>
       </c>
       <c r="F18" s="17">
-        <f>SUMIF('Backlog del Producto'!L$8:L$130,"",'Backlog del Producto'!J$8:J$130)-SUMIF('Backlog del Producto'!M$8:M$130,"Eliminado",'Backlog del Producto'!J$8:J$130)</f>
+        <f>SUMIF('Backlog del Producto'!L$10:L$119,"",'Backlog del Producto'!J$10:J$119)-SUMIF('Backlog del Producto'!M$10:M$119,"Eliminado",'Backlog del Producto'!J$10:J$119)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>$G18="Planned"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
-      <formula>$G18="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
-      <formula>$G3="Planned"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>$G3="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Unplanned"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I17 B3:F17">
+  <conditionalFormatting sqref="H4:I17 B3:F17 H3:H7">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
@@ -2607,8 +3389,27 @@
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>$G18="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>$G18="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G17">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>$G3="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>$G3="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Unplanned"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Planeado,En Progreso,Terminado,No planeado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2619,6 +3420,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2668,26 +3473,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -2832,7 +3618,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2840,39 +3649,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2888,4 +3665,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>